--- a/src/openai/Olbia_text/responses/full/DET_DETE_3191_2024-response.xlsx
+++ b/src/openai/Olbia_text/responses/full/DET_DETE_3191_2024-response.xlsx
@@ -975,7 +975,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Not found</t>
+          <t>SI</t>
         </is>
       </c>
     </row>
